--- a/results/2013年.xlsx
+++ b/results/2013年.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,52 +429,52 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營收</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>稅後淨利</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>營業現金流</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投資現金流</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>總負債</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>流動負債</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>股價</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>營收</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>營業利益</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>稅後淨利</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>營業現金流</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>投資現金流</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ROA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -553,169 +553,167 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>703461593</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>21.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18905129</v>
       </c>
       <c r="D2" t="n">
-        <v>16.1</v>
+        <v>-1648317</v>
       </c>
       <c r="E2" t="n">
-        <v>28697569</v>
+        <v>-36009</v>
       </c>
       <c r="F2" t="n">
-        <v>9096871</v>
+        <v>2922787</v>
       </c>
       <c r="G2" t="n">
-        <v>8077321</v>
+        <v>-815015</v>
       </c>
       <c r="H2" t="n">
-        <v>4330191</v>
+        <v>-0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>-1113041</v>
+        <v>-0.01</v>
       </c>
       <c r="J2" t="n">
-        <v>5.09</v>
+        <v>14532980</v>
       </c>
       <c r="K2" t="n">
-        <v>0.98</v>
+        <v>8561571</v>
       </c>
       <c r="L2" t="n">
-        <v>12417996</v>
+        <v>9835142</v>
       </c>
       <c r="M2" t="n">
-        <v>865094056</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>40085095</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14216444</v>
       </c>
       <c r="O2" t="n">
-        <v>0.78</v>
+        <v>0.03</v>
       </c>
       <c r="P2" t="n">
-        <v>10355539.74358974</v>
+        <v>-1200300</v>
       </c>
       <c r="Q2" t="n">
-        <v>161632463</v>
+        <v>25552115</v>
       </c>
       <c r="R2" t="n">
-        <v>15.60830888607745</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>-21.2881071398817</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-316536</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5971409</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2814635971430193</v>
+        <v>-0.001904721200262638</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01435450389916909</v>
+        <v>0.2453565845359728</v>
       </c>
       <c r="W2" t="n">
-        <v>77.33006140243167</v>
+        <v>-8.816859863727668</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0484472049689441</v>
+        <v>0.001415094339622641</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.03150188258775</v>
+        <v>-0.9958612036616147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>4253866946</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>39.2</v>
+      <c r="C3" t="n">
+        <v>15569575</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>374120993</v>
+        <v>1948435</v>
       </c>
       <c r="F3" t="n">
-        <v>38233211</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32659321</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33555890</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-11357282</v>
+        <v>-746449</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>7939297</v>
       </c>
       <c r="K3" t="n">
-        <v>0.75</v>
+        <v>4976288</v>
       </c>
       <c r="L3" t="n">
-        <v>34003921</v>
+        <v>9796025</v>
       </c>
       <c r="M3" t="n">
-        <v>4570546842</v>
-      </c>
-      <c r="N3" t="inlineStr">
+        <v>21074041</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8592626</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>317334.690553746</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13134744</v>
+      </c>
+      <c r="R3" t="n">
+        <v>41.39082297330935</v>
+      </c>
+      <c r="S3" t="n">
+        <v>653329</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2963009</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1251437499096796</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4648384711788309</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9866864.350453172</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>316679896</v>
-      </c>
-      <c r="R3" t="n">
-        <v>32.09529235956865</v>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
-      </c>
-      <c r="U3" t="n">
-        <v>0.08729614646350518</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.007439792693410055</v>
-      </c>
-      <c r="W3" t="n">
-        <v>111.2610433374272</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.08443877551020408</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.221362920170229</v>
       </c>
     </row>
     <row r="4">
@@ -723,83 +721,8035 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>808258</v>
+      </c>
+      <c r="D4" t="n">
+        <v>339684</v>
+      </c>
+      <c r="E4" t="n">
+        <v>290640</v>
+      </c>
+      <c r="F4" t="n">
+        <v>407061</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19248</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>165481</v>
+      </c>
+      <c r="K4" t="n">
+        <v>149355</v>
+      </c>
+      <c r="L4" t="n">
+        <v>507402</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1828434</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1253589</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="P4" t="n">
+        <v>75100.77519379844</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1662953</v>
+      </c>
+      <c r="R4" t="n">
+        <v>22.14295386044591</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1088108</v>
+      </c>
+      <c r="T4" t="n">
+        <v>16126</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3595881513081219</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2775063250847447</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4871615972492081</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.05072083879423329</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.445791400771291</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1535965</v>
+      </c>
+      <c r="D5" t="n">
+        <v>101309</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113732</v>
+      </c>
+      <c r="F5" t="n">
+        <v>313269</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18833</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>414767</v>
+      </c>
+      <c r="K5" t="n">
+        <v>349460</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1423845</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3001680</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1398232</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>66901.17647058824</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2586913</v>
+      </c>
+      <c r="R5" t="n">
+        <v>38.66767576407695</v>
+      </c>
+      <c r="S5" t="n">
+        <v>983465</v>
+      </c>
+      <c r="T5" t="n">
+        <v>65307</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.07404595807847184</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4743493643559606</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.094078512274329</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0193621867881549</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.270630397743429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21135060</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4837208</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4370988</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7550921</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1608722</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4420199</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3697865</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6639474</v>
+      </c>
+      <c r="M6" t="n">
+        <v>28849959</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21556197</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1583691.304347826</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24429760</v>
+      </c>
+      <c r="R6" t="n">
+        <v>15.42583452528353</v>
+      </c>
+      <c r="S6" t="n">
+        <v>17135998</v>
+      </c>
+      <c r="T6" t="n">
+        <v>722334</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2068121879001053</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.230138074026379</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9137913854438345</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.07459459459459458</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.398573635634143</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22215367</v>
+      </c>
+      <c r="D7" t="n">
+        <v>629014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>339842</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2458132</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-731025</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19087751</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9107014</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16097846</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39673642</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13865278</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>596214.0350877193</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>20585891</v>
+      </c>
+      <c r="R7" t="n">
+        <v>34.52768601291188</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-5222473</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9980737</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01529760908293795</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4057566986161744</v>
+      </c>
+      <c r="W7" t="n">
+        <v>30.345510592769</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.01373493975903614</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.201934006943899</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31396516</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3861397</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3567978</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1736406</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-401791</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7741854</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7704817</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1594666</v>
+      </c>
+      <c r="M8" t="n">
+        <v>22457612</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20227171</v>
+      </c>
+      <c r="O8" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>203072.1684689812</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>14715758</v>
+      </c>
+      <c r="R8" t="n">
+        <v>72.46565647546034</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12485317</v>
+      </c>
+      <c r="T8" t="n">
+        <v>37037</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1136424818600892</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.07100781685960199</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.004936037397864</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0691732283464567</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.505108659106872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>590802</v>
+      </c>
+      <c r="D9" t="n">
+        <v>182132</v>
+      </c>
+      <c r="E9" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>201805</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-30668</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J9" t="n">
+        <v>117283</v>
+      </c>
+      <c r="K9" t="n">
+        <v>117283</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14752</v>
+      </c>
+      <c r="M9" t="n">
+        <v>823583</v>
+      </c>
+      <c r="N9" t="n">
+        <v>765183</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>23108.10810810811</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>706300</v>
+      </c>
+      <c r="R9" t="n">
+        <v>30.56502923976608</v>
+      </c>
+      <c r="S9" t="n">
+        <v>647900</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2894370702875075</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.01791197729919146</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.6439450508422463</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.04916943521594685</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.923927892213323</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54735523</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3678285</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3235607</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5629238</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3251038</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="J10" t="n">
+        <v>21572585</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20953233</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6519846</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40457772</v>
+      </c>
+      <c r="N10" t="n">
+        <v>33209199</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>308153.0476190476</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18885187</v>
+      </c>
+      <c r="R10" t="n">
+        <v>61.28508916564959</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11636614</v>
+      </c>
+      <c r="T10" t="n">
+        <v>619352</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.05911347553945908</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.161151879544924</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.864848699869641</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.07664233576642336</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.235454037273209</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4609</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-122995</v>
+      </c>
+      <c r="E11" t="n">
+        <v>276253</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-89262</v>
+      </c>
+      <c r="G11" t="n">
+        <v>52474</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>123819</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75426</v>
+      </c>
+      <c r="L11" t="n">
+        <v>90321</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2089937</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1152825</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="P11" t="n">
+        <v>127894.9074074074</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1966118</v>
+      </c>
+      <c r="R11" t="n">
+        <v>15.37291859273926</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1029006</v>
+      </c>
+      <c r="T11" t="n">
+        <v>48393</v>
+      </c>
+      <c r="U11" t="n">
+        <v>59.93773052722933</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.04321709218986027</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-1.006699459327615</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.03789473684210527</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.707819023182852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10481303</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2109615</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1811510</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4998343</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1582556</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6219927</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2327448</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12636304</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21111504</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5688964</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>754795.8333333334</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14891577</v>
+      </c>
+      <c r="R12" t="n">
+        <v>19.72927822645196</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-530963</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3892479</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1728325190102795</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5985506290788188</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.94837067426995</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.06340819022457067</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.918468560560555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4377327</v>
+      </c>
+      <c r="D13" t="n">
+        <v>59866</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33692</v>
+      </c>
+      <c r="F13" t="n">
+        <v>186533</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-244651</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2095217</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2093596</v>
+      </c>
+      <c r="L13" t="n">
+        <v>782789</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3335839</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2229660</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>56153.33333333334</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1240622</v>
+      </c>
+      <c r="R13" t="n">
+        <v>22.09347026000237</v>
+      </c>
+      <c r="S13" t="n">
+        <v>134443</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1621</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.007696934681827517</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.234660305848094</v>
+      </c>
+      <c r="W13" t="n">
+        <v>34.99844653058497</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.099872483318851</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15811243</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2704748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2606986</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5902934</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-5346380</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15587302</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8282812</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13922936</v>
+      </c>
+      <c r="M14" t="n">
+        <v>38229276</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16496183</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>629706.7632850242</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>22641974</v>
+      </c>
+      <c r="R14" t="n">
+        <v>35.95637734916873</v>
+      </c>
+      <c r="S14" t="n">
+        <v>908881</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7304490</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1648817869664011</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3641956494284642</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.762940577088882</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05273885350318471</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.183201028226355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18122414</v>
+      </c>
+      <c r="D15" t="n">
+        <v>539837</v>
+      </c>
+      <c r="E15" t="n">
+        <v>451728</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1384091</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-450112</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4265636</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3265260</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2731045</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9138241</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4061786</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P15" t="n">
+        <v>231655.3846153846</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4872605</v>
+      </c>
+      <c r="R15" t="n">
+        <v>21.03385167622994</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-203850</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1000376</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.02492648054503114</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2988589379509689</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.901711072045821</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.122257053291536</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.7583014392948709</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35338541</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1797017</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1460574</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-135468</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-647035</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13686502</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6785919</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18797074</v>
+      </c>
+      <c r="M16" t="n">
+        <v>45561387</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14914519</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2355764.516129032</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>31874885</v>
+      </c>
+      <c r="R16" t="n">
+        <v>13.53059050756757</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1228017</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6900583</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.04133090836998619</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4125658861087789</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-7.616234014480664</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.03936507936507937</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.164029019368455</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1006634</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-85599</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-62962</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3719</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-41656</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-7.78</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>514809</v>
+      </c>
+      <c r="K17" t="n">
+        <v>490937</v>
+      </c>
+      <c r="L17" t="n">
+        <v>598587</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1293082</v>
+      </c>
+      <c r="N17" t="n">
+        <v>583785</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="P17" t="n">
+        <v>60540.38461538461</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>778273</v>
+      </c>
+      <c r="R17" t="n">
+        <v>12.85543534195229</v>
+      </c>
+      <c r="S17" t="n">
+        <v>68976</v>
+      </c>
+      <c r="T17" t="n">
+        <v>23872</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.06254706278548113</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.462914958216107</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-6.014194091052466</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.08739495798319327</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9256784918956161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>53754291</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1198777</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1159564</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3919397</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2937840</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15932074</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13776018</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8304459</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20528893</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9301233</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="P18" t="n">
+        <v>236163.7474541751</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4596819</v>
+      </c>
+      <c r="R18" t="n">
+        <v>19.4645412327392</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-6630841</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2156056</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.021571561607984</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.4045254169331001</v>
+      </c>
+      <c r="W18" t="n">
+        <v>13.2902733369092</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.03494661921708185</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.218253865838878</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1673299</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-41885</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20104</v>
+      </c>
+      <c r="F19" t="n">
+        <v>106694</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-764630</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1492512</v>
+      </c>
+      <c r="K19" t="n">
+        <v>489653</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1243056</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2628785</v>
+      </c>
+      <c r="N19" t="n">
+        <v>899599</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P19" t="n">
+        <v>62825</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1136273</v>
+      </c>
+      <c r="R19" t="n">
+        <v>18.08631914046956</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-592913</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1002859</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01201458914396052</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.4728633189857672</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-35.63356810313955</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.004539007092198582</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.897973902398455</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5001187</v>
+      </c>
+      <c r="D20" t="n">
+        <v>999051</v>
+      </c>
+      <c r="E20" t="n">
+        <v>842094</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2449649</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2748141</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4358814</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2238886</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8227033</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12844196</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4196530</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P20" t="n">
+        <v>450317.6470588235</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8485382</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18.84310343025838</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-162284</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2119928</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1683788268665019</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6405253392271497</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4.362954443767135</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.09303482587064676</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.066703267558532</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8216395</v>
+      </c>
+      <c r="D21" t="n">
+        <v>319379</v>
+      </c>
+      <c r="E21" t="n">
+        <v>160088</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2018548</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-898995</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5731483</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1989972</v>
+      </c>
+      <c r="L21" t="n">
+        <v>785005</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12573170</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10599380</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P21" t="n">
+        <v>500275</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6841687</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13.67585228124532</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4867897</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3741511</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.01948397076820187</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.06243493088855078</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17.94571026899076</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1136190</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-57028</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>164521</v>
+      </c>
+      <c r="K22" t="n">
+        <v>155684</v>
+      </c>
+      <c r="L22" t="n">
+        <v>58833</v>
+      </c>
+      <c r="M22" t="n">
+        <v>444407</v>
+      </c>
+      <c r="N22" t="n">
+        <v>368182</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P22" t="n">
+        <v>15099.77827050998</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>279886</v>
+      </c>
+      <c r="R22" t="n">
+        <v>18.53576886930984</v>
+      </c>
+      <c r="S22" t="n">
+        <v>203661</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8837</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.05993715839780318</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1323854034702424</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4256761</v>
+      </c>
+      <c r="D23" t="n">
+        <v>380636</v>
+      </c>
+      <c r="E23" t="n">
+        <v>288881</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2034265</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2346442</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4246741</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2309199</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6026007</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8362157</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2211767</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>236787.7049180328</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4115416</v>
+      </c>
+      <c r="R23" t="n">
+        <v>17.3801929514229</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-2034974</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1937542</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.06786404028790904</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.7206283020038968</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11.1569609810948</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1270374</v>
+      </c>
+      <c r="D24" t="n">
+        <v>106416</v>
+      </c>
+      <c r="E24" t="n">
+        <v>87206</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1519</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-432082</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>948752</v>
+      </c>
+      <c r="K24" t="n">
+        <v>722716</v>
+      </c>
+      <c r="L24" t="n">
+        <v>591643</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1903497</v>
+      </c>
+      <c r="N24" t="n">
+        <v>849321</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P24" t="n">
+        <v>78563.96396396395</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>954745</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12.15245453294498</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-99431</v>
+      </c>
+      <c r="T24" t="n">
+        <v>226036</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.06864592631776154</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3108189821155484</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.915501428356638</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.03189655172413794</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.863619024918638</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>264780</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-53754</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-49581</v>
+      </c>
+      <c r="F26" t="n">
+        <v>648</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-15753</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="J26" t="n">
+        <v>84139</v>
+      </c>
+      <c r="K26" t="n">
+        <v>47013</v>
+      </c>
+      <c r="L26" t="n">
+        <v>97352</v>
+      </c>
+      <c r="M26" t="n">
+        <v>543345</v>
+      </c>
+      <c r="N26" t="n">
+        <v>326455</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>59736.14457831326</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>459206</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7.687238659970553</v>
+      </c>
+      <c r="S26" t="n">
+        <v>242316</v>
+      </c>
+      <c r="T26" t="n">
+        <v>37126</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.1872535690006798</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1791716128794781</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-1.565260259701604</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.03697104677060133</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.920424484399447</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1066110</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-66111</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-74099</v>
+      </c>
+      <c r="F27" t="n">
+        <v>326729</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-73555</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="J27" t="n">
+        <v>399722</v>
+      </c>
+      <c r="K27" t="n">
+        <v>223966</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1084082</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2195462</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1049628</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="P27" t="n">
+        <v>134725.4545454545</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1795740</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13.32888433042281</v>
+      </c>
+      <c r="S27" t="n">
+        <v>649906</v>
+      </c>
+      <c r="T27" t="n">
+        <v>175756</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.06950408494433032</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.4937830852913874</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-6.046225287773593</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.02894736842105263</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.42547564589731</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3035778</v>
+      </c>
+      <c r="D28" t="n">
+        <v>333548</v>
+      </c>
+      <c r="E28" t="n">
+        <v>270933</v>
+      </c>
+      <c r="F28" t="n">
+        <v>255874</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-237883</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1642936</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1539879</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1590963</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4715575</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2809211</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="P28" t="n">
+        <v>76534.74576271186</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3072639</v>
+      </c>
+      <c r="R28" t="n">
+        <v>40.14698120937649</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1166275</v>
+      </c>
+      <c r="T28" t="n">
+        <v>103057</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.08924664451748449</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.3373847303881287</v>
+      </c>
+      <c r="W28" t="n">
+        <v>4.925635890486527</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.05514018691588785</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.599123970621378</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30486204</v>
+      </c>
+      <c r="D29" t="n">
+        <v>243290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>374996</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1899739</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-136067</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4272545</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4214468</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3917325</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8637150</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1337723</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P29" t="n">
+        <v>309914.0495867769</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4364605</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14.08327568827401</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-2934822</v>
+      </c>
+      <c r="T29" t="n">
+        <v>58077</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.01230051468526551</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.4535437036522464</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17.56153150561059</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.04172413793103448</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.059180026145901</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33519816</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2371028</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1987439</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2399575</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1902567</v>
+      </c>
+      <c r="H30" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9725321</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5415513</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4599597</v>
+      </c>
+      <c r="M30" t="n">
+        <v>19116623</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11045545</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="P30" t="n">
+        <v>218880.9471365639</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9391302</v>
+      </c>
+      <c r="R30" t="n">
+        <v>42.9059821005827</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1320224</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4309808</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.05929146508441455</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.2406071930173023</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4.101731822652453</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.1367469879518072</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.547569750165402</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24892573</v>
+      </c>
+      <c r="D32" t="n">
+        <v>341923</v>
+      </c>
+      <c r="E32" t="n">
+        <v>439801</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2309446</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-686992</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12604321</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9252310</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10369432</v>
+      </c>
+      <c r="M32" t="n">
+        <v>26269354</v>
+      </c>
+      <c r="N32" t="n">
+        <v>14915755</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>745425.4237288137</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>13665033</v>
+      </c>
+      <c r="R32" t="n">
+        <v>18.33185797667581</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2311434</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3352011</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01766796064030825</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.3947349447573016</v>
+      </c>
+      <c r="W32" t="n">
+        <v>36.86303933926644</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.03017902813299233</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.066449457816773</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2796804</v>
+      </c>
+      <c r="D33" t="n">
+        <v>321584</v>
+      </c>
+      <c r="E33" t="n">
+        <v>285623</v>
+      </c>
+      <c r="F33" t="n">
+        <v>235662</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-812004</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J33" t="n">
+        <v>492536</v>
+      </c>
+      <c r="K33" t="n">
+        <v>394382</v>
+      </c>
+      <c r="L33" t="n">
+        <v>933049</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2072015</v>
+      </c>
+      <c r="N33" t="n">
+        <v>992459</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>50285.73943661972</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1579479</v>
+      </c>
+      <c r="R33" t="n">
+        <v>31.41007803993376</v>
+      </c>
+      <c r="S33" t="n">
+        <v>499923</v>
+      </c>
+      <c r="T33" t="n">
+        <v>98154</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1021247824302311</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.4503099639722685</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.531593611622469</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2441257</v>
+      </c>
+      <c r="D34" t="n">
+        <v>189644</v>
+      </c>
+      <c r="E34" t="n">
+        <v>143976</v>
+      </c>
+      <c r="F34" t="n">
+        <v>121874</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-30292</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>840097</v>
+      </c>
+      <c r="K34" t="n">
+        <v>761017</v>
+      </c>
+      <c r="L34" t="n">
+        <v>216083</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1296185</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1040088</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="P34" t="n">
+        <v>27063.15789473684</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>456088</v>
+      </c>
+      <c r="R34" t="n">
+        <v>16.8527265655387</v>
+      </c>
+      <c r="S34" t="n">
+        <v>199991</v>
+      </c>
+      <c r="T34" t="n">
+        <v>79080</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.05897617497870974</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1667069129792429</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4.429863322857565</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32626286</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-897633</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-517105</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-1294955</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-338169</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>22663768</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13032565</v>
+      </c>
+      <c r="L35" t="n">
+        <v>12208882</v>
+      </c>
+      <c r="M35" t="n">
+        <v>37728433</v>
+      </c>
+      <c r="N35" t="n">
+        <v>18985785</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="P35" t="n">
+        <v>923401.7857142857</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>15064665</v>
+      </c>
+      <c r="R35" t="n">
+        <v>16.31431218031154</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-3677983</v>
+      </c>
+      <c r="T35" t="n">
+        <v>9631203</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.01584933694261124</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.3235989684490739</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-25.24836765136754</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.02066420664206642</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.661118145863658</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>821890</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7278</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3727</v>
+      </c>
+      <c r="F36" t="n">
+        <v>94606</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-397973</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>244621</v>
+      </c>
+      <c r="K36" t="n">
+        <v>16796</v>
+      </c>
+      <c r="L36" t="n">
+        <v>388584</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2915837</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1372693</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="P36" t="n">
+        <v>186350</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2671216</v>
+      </c>
+      <c r="R36" t="n">
+        <v>14.33440300509793</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1128072</v>
+      </c>
+      <c r="T36" t="n">
+        <v>227825</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.004534670089671367</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1332667086671854</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-33.61101951085463</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.002751031636863824</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.5071714530011799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>347828838</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24552950</v>
+      </c>
+      <c r="E38" t="n">
+        <v>18354467</v>
+      </c>
+      <c r="F38" t="n">
+        <v>54242203</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-79171814</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J38" t="n">
+        <v>362629658</v>
+      </c>
+      <c r="K38" t="n">
+        <v>134854840</v>
+      </c>
+      <c r="L38" t="n">
+        <v>462742294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>681999373</v>
+      </c>
+      <c r="N38" t="n">
+        <v>148237385</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P38" t="n">
+        <v>17480444.76190476</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>319369715</v>
+      </c>
+      <c r="R38" t="n">
+        <v>18.27011379573158</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-214392273</v>
+      </c>
+      <c r="T38" t="n">
+        <v>227774818</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.05276867526435516</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6785083862533111</v>
+      </c>
+      <c r="W38" t="n">
+        <v>14.76929077768659</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.379301753768356</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6036728</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-635604</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-840042</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-369198</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-84518</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-16.05</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8367352</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4418329</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10149729</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13191856</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2056253</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>631610.5263157894</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4824504</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7.63841607919604</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-6311099</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3949023</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.1391551847292109</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.7693935561455492</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-13.16441054493049</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.176158940397351</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.988424815003617</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3778037</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-164491</v>
+      </c>
+      <c r="E40" t="n">
+        <v>28005</v>
+      </c>
+      <c r="F40" t="n">
+        <v>296145</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-340017</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1598452</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1192554</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1076703</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5975751</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2164467</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P40" t="n">
+        <v>350062.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4377299</v>
+      </c>
+      <c r="R40" t="n">
+        <v>12.50433565434744</v>
+      </c>
+      <c r="S40" t="n">
+        <v>566015</v>
+      </c>
+      <c r="T40" t="n">
+        <v>405898</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.007412579601523225</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1801786921844635</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-9.717565094746824</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.008733624454148471</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7325459147296084</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1626182</v>
+      </c>
+      <c r="D41" t="n">
+        <v>325795</v>
+      </c>
+      <c r="E41" t="n">
+        <v>277309</v>
+      </c>
+      <c r="F41" t="n">
+        <v>290554</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-638537</v>
+      </c>
+      <c r="H41" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="J41" t="n">
+        <v>764836</v>
+      </c>
+      <c r="K41" t="n">
+        <v>337436</v>
+      </c>
+      <c r="L41" t="n">
+        <v>689058</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1599435</v>
+      </c>
+      <c r="N41" t="n">
+        <v>840627</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>41889.57703927493</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>834599</v>
+      </c>
+      <c r="R41" t="n">
+        <v>19.92378675052018</v>
+      </c>
+      <c r="S41" t="n">
+        <v>75791</v>
+      </c>
+      <c r="T41" t="n">
+        <v>427400</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1705276531163178</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.4308133809751569</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.347598950260133</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.08063337393422657</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>4.120702606790172</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>93268</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-19801</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-11041</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-3625012</v>
+      </c>
+      <c r="G42" t="n">
+        <v>376477</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2767861</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2764520</v>
+      </c>
+      <c r="L42" t="n">
+        <v>28338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4814175</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4426943</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="P42" t="n">
+        <v>61338.88888888889</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2046314</v>
+      </c>
+      <c r="R42" t="n">
+        <v>33.36079340639435</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1659082</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3341</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-0.1183792940772827</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.005886366822975899</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-139.7838998030402</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.00303030303030303</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.780533192853101</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1108429</v>
+      </c>
+      <c r="D43" t="n">
+        <v>69380</v>
+      </c>
+      <c r="E43" t="n">
+        <v>53353</v>
+      </c>
+      <c r="F43" t="n">
+        <v>85145</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-143915</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J43" t="n">
+        <v>587298</v>
+      </c>
+      <c r="K43" t="n">
+        <v>467699</v>
+      </c>
+      <c r="L43" t="n">
+        <v>468968</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1345754</v>
+      </c>
+      <c r="N43" t="n">
+        <v>729637</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P43" t="n">
+        <v>52306.86274509803</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>758456</v>
+      </c>
+      <c r="R43" t="n">
+        <v>14.50012407924578</v>
+      </c>
+      <c r="S43" t="n">
+        <v>142339</v>
+      </c>
+      <c r="T43" t="n">
+        <v>119599</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.04813389039803181</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.3484797370098844</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8.464946670510233</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.0793774319066148</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.8861993131763869</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1617224</v>
+      </c>
+      <c r="D44" t="n">
+        <v>98625</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100762</v>
+      </c>
+      <c r="F44" t="n">
+        <v>152729</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-40611</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J44" t="n">
+        <v>433178</v>
+      </c>
+      <c r="K44" t="n">
+        <v>353274</v>
+      </c>
+      <c r="L44" t="n">
+        <v>322551</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1756732</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1389936</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P44" t="n">
+        <v>79340.15748031496</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1323554</v>
+      </c>
+      <c r="R44" t="n">
+        <v>16.68201881661738</v>
+      </c>
+      <c r="S44" t="n">
+        <v>956758</v>
+      </c>
+      <c r="T44" t="n">
+        <v>79904</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.06230553095922396</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.183608541314213</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.39217237008872</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.07839506172839507</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.9711054865771267</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4183783</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-173126</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-124441</v>
+      </c>
+      <c r="F46" t="n">
+        <v>497497</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-143614</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1142255</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1092208</v>
+      </c>
+      <c r="L46" t="n">
+        <v>835179</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4288505</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2834283</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="P46" t="n">
+        <v>91500.73529411764</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3146250</v>
+      </c>
+      <c r="R46" t="n">
+        <v>34.38496958397956</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1692028</v>
+      </c>
+      <c r="T46" t="n">
+        <v>50047</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-0.02974365544293287</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.194748286407501</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-6.597824705705671</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-0.02011834319526628</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.965975274019023</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1323023</v>
+      </c>
+      <c r="D47" t="n">
+        <v>49621</v>
+      </c>
+      <c r="E47" t="n">
+        <v>35644</v>
+      </c>
+      <c r="F47" t="n">
+        <v>39091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-250645</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J47" t="n">
+        <v>870590</v>
+      </c>
+      <c r="K47" t="n">
+        <v>747401</v>
+      </c>
+      <c r="L47" t="n">
+        <v>543164</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1890760</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1150604</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P47" t="n">
+        <v>44555</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1020170</v>
+      </c>
+      <c r="R47" t="n">
+        <v>22.89686903826731</v>
+      </c>
+      <c r="S47" t="n">
+        <v>280014</v>
+      </c>
+      <c r="T47" t="n">
+        <v>123189</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.02694133057399607</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.287272842666441</v>
+      </c>
+      <c r="W47" t="n">
+        <v>17.54478950444368</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.04232804232804233</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.8254403677818402</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>52</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29200402</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1297168</v>
+      </c>
+      <c r="E48" t="n">
+        <v>703950</v>
+      </c>
+      <c r="F48" t="n">
+        <v>896512</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-2622714</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26489755</v>
+      </c>
+      <c r="K48" t="n">
+        <v>17340009</v>
+      </c>
+      <c r="L48" t="n">
+        <v>13489643</v>
+      </c>
+      <c r="M48" t="n">
+        <v>38017850</v>
+      </c>
+      <c r="N48" t="n">
+        <v>21972928</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>409273.2558139535</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>11528095</v>
+      </c>
+      <c r="R48" t="n">
+        <v>28.16723261595284</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-4516827</v>
+      </c>
+      <c r="T48" t="n">
+        <v>9149746</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.02410754482078706</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.3548239313901233</v>
+      </c>
+      <c r="W48" t="n">
+        <v>20.4212214609056</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.03307692307692307</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.846116752362431</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4479802</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-36419</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-141343</v>
+      </c>
+      <c r="F49" t="n">
+        <v>253324</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1271675</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7403584</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2571519</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4363669</v>
+      </c>
+      <c r="M49" t="n">
+        <v>13227599</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3669526</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="P49" t="n">
+        <v>504796.4285714285</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5824015</v>
+      </c>
+      <c r="R49" t="n">
+        <v>11.53735381306467</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-3734058</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4832065</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.03155117123480011</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.3298912372532611</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-203.2890524176941</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.02772277227722773</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.8754173759118801</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>423056211</v>
+      </c>
+      <c r="D50" t="n">
+        <v>18087585</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20739962</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30345265</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-35734617</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>232136838</v>
+      </c>
+      <c r="K50" t="n">
+        <v>130363565</v>
+      </c>
+      <c r="L50" t="n">
+        <v>147683175</v>
+      </c>
+      <c r="M50" t="n">
+        <v>370203449</v>
+      </c>
+      <c r="N50" t="n">
+        <v>129913360</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P50" t="n">
+        <v>8362887.903225807</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>138066611</v>
+      </c>
+      <c r="R50" t="n">
+        <v>16.50944178586248</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-102223478</v>
+      </c>
+      <c r="T50" t="n">
+        <v>101773273</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.04902412837995185</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.3989243628035459</v>
+      </c>
+      <c r="W50" t="n">
+        <v>12.83404268729076</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0431304347826087</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.482855492378848</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C51" t="n">
+        <v>14753588</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-2869589</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3476608</v>
+      </c>
+      <c r="F51" t="n">
+        <v>881986</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-458476</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-12.53</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="J51" t="n">
+        <v>14002089</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8612444</v>
+      </c>
+      <c r="L51" t="n">
+        <v>23553120</v>
+      </c>
+      <c r="M51" t="n">
+        <v>40095663</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11256277</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2849678.68852459</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>26093574</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9.156672331191782</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-2745812</v>
+      </c>
+      <c r="T51" t="n">
+        <v>5389645</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.2356449156639049</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.5874231335194532</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-4.879475423135508</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.1865443425076453</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.7142332676601074</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15706084</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-2567748</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-3663250</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1425798</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1530987</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-11.54</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11850985</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7884545</v>
+      </c>
+      <c r="L52" t="n">
+        <v>24902114</v>
+      </c>
+      <c r="M52" t="n">
+        <v>41745300</v>
+      </c>
+      <c r="N52" t="n">
+        <v>12912393</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2796374.045801526</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>29894315</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10.69038494506245</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1061408</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3966440</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.2332376421773881</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.5965249740689371</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-4.615322453761038</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.2302284710017575</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.5322539861044043</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="C53" t="n">
+        <v>422730500</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15349268</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5095019</v>
+      </c>
+      <c r="F53" t="n">
+        <v>75889159</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-12161047</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J53" t="n">
+        <v>313623031</v>
+      </c>
+      <c r="K53" t="n">
+        <v>300586751</v>
+      </c>
+      <c r="L53" t="n">
+        <v>273505759</v>
+      </c>
+      <c r="M53" t="n">
+        <v>508200885</v>
+      </c>
+      <c r="N53" t="n">
+        <v>171701969</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P53" t="n">
+        <v>8938629.824561404</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>194577854</v>
+      </c>
+      <c r="R53" t="n">
+        <v>21.768196895831</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-141921062</v>
+      </c>
+      <c r="T53" t="n">
+        <v>13036280</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.01205264110349265</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5381843422016079</v>
+      </c>
+      <c r="W53" t="n">
+        <v>20.4324421855166</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.028287841191067</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.9256623365005984</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46975291</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4099947</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8110463</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13335308</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-7336790</v>
+      </c>
+      <c r="H54" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="J54" t="n">
+        <v>83321682</v>
+      </c>
+      <c r="K54" t="n">
+        <v>77692393</v>
+      </c>
+      <c r="L54" t="n">
+        <v>52798680</v>
+      </c>
+      <c r="M54" t="n">
+        <v>93326819</v>
+      </c>
+      <c r="N54" t="n">
+        <v>22045965</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P54" t="n">
+        <v>23854302.94117647</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>10005137</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.4194269279078149</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-61275717</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5629289</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.1726538107023116</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.5657396294627807</v>
+      </c>
+      <c r="W54" t="n">
+        <v>20.32262417050757</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.05466237942122187</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>14.82975838253066</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4025820</v>
+      </c>
+      <c r="D55" t="n">
+        <v>421354</v>
+      </c>
+      <c r="E55" t="n">
+        <v>536622</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1154357</v>
+      </c>
+      <c r="G55" t="n">
+        <v>23714</v>
+      </c>
+      <c r="H55" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>9899903</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1946971</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3264417</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11079506</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2658928</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P55" t="n">
+        <v>325225.4545454546</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1179603</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.627031597660923</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-7240975</v>
+      </c>
+      <c r="T55" t="n">
+        <v>7952932</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.1332950802569415</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.2946356092049591</v>
+      </c>
+      <c r="W55" t="n">
+        <v>23.49545275469083</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.2002427184466019</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.271830222078569</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3952317540</v>
+      </c>
+      <c r="D56" t="n">
+        <v>109314396</v>
+      </c>
+      <c r="E56" t="n">
+        <v>107345876</v>
+      </c>
+      <c r="F56" t="n">
+        <v>172751571</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-33906088</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1506536601</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1358960771</v>
+      </c>
+      <c r="L56" t="n">
+        <v>379561941</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2312461203</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1808581488</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="P56" t="n">
+        <v>13155131.8627451</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>805924602</v>
+      </c>
+      <c r="R56" t="n">
+        <v>61.26313368871293</v>
+      </c>
+      <c r="S56" t="n">
+        <v>302044887</v>
+      </c>
+      <c r="T56" t="n">
+        <v>147575830</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.02716023571324687</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.1641376471560202</v>
+      </c>
+      <c r="W56" t="n">
+        <v>13.78168526860817</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.248711833591599</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12266048</v>
+      </c>
+      <c r="D57" t="n">
+        <v>553675</v>
+      </c>
+      <c r="E57" t="n">
+        <v>455424</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1487778</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1756356</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9372622</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8332961</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1406445</v>
+      </c>
+      <c r="M57" t="n">
+        <v>18189129</v>
+      </c>
+      <c r="N57" t="n">
+        <v>12130420</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P57" t="n">
+        <v>218953.8461538462</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>8816507</v>
+      </c>
+      <c r="R57" t="n">
+        <v>40.26650892355256</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2757798</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1039661</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.03712882910616361</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.07732338365404963</v>
+      </c>
+      <c r="W57" t="n">
+        <v>16.92802095091886</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.07184801381692574</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.7189597701395628</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>46754377</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2706444</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3002927</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5278177</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-3414959</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J58" t="n">
+        <v>74912310</v>
+      </c>
+      <c r="K58" t="n">
+        <v>46185688</v>
+      </c>
+      <c r="L58" t="n">
+        <v>52166888</v>
+      </c>
+      <c r="M58" t="n">
+        <v>111441421</v>
+      </c>
+      <c r="N58" t="n">
+        <v>21652112</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1949952.597402597</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>36529111</v>
+      </c>
+      <c r="R58" t="n">
+        <v>18.73333282494047</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-53260198</v>
+      </c>
+      <c r="T58" t="n">
+        <v>28726622</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.06422771925717244</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.468110398556386</v>
+      </c>
+      <c r="W58" t="n">
+        <v>27.67923888319877</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.05451327433628319</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.508007158362638</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>76546540</v>
+      </c>
+      <c r="D59" t="n">
+        <v>69325322</v>
+      </c>
+      <c r="E59" t="n">
+        <v>78952538</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-99421</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-2504878</v>
+      </c>
+      <c r="H59" t="n">
+        <v>116.78</v>
+      </c>
+      <c r="I59" t="n">
+        <v>96.11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14456985</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6051900</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3544400</v>
+      </c>
+      <c r="M59" t="n">
+        <v>117128269</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6806952</v>
+      </c>
+      <c r="O59" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1439426.399270738</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>102671284</v>
+      </c>
+      <c r="R59" t="n">
+        <v>71.32791510008204</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-7650033</v>
+      </c>
+      <c r="T59" t="n">
+        <v>8405085</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.031431832189933</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.03026084164190969</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.2085383029306377</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.7780141843971632</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.988392831909914</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>660381</v>
+      </c>
+      <c r="D60" t="n">
+        <v>43824</v>
+      </c>
+      <c r="E60" t="n">
+        <v>76252</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-12248</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-5740</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J60" t="n">
+        <v>163861</v>
+      </c>
+      <c r="K60" t="n">
+        <v>28857</v>
+      </c>
+      <c r="L60" t="n">
+        <v>435651</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2401467</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1103213</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P60" t="n">
+        <v>149513.7254901961</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2237606</v>
+      </c>
+      <c r="R60" t="n">
+        <v>14.96589020615853</v>
+      </c>
+      <c r="S60" t="n">
+        <v>939352</v>
+      </c>
+      <c r="T60" t="n">
+        <v>135004</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.1154666775694637</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1814103629156678</v>
+      </c>
+      <c r="W60" t="n">
+        <v>3.739069916027747</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.03445945945945946</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.9889154468011357</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>38189390</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2336790</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1937230</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3108910</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-2281698</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J61" t="n">
+        <v>23978363</v>
+      </c>
+      <c r="K61" t="n">
+        <v>12529122</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13316224</v>
+      </c>
+      <c r="M61" t="n">
+        <v>44120170</v>
+      </c>
+      <c r="N61" t="n">
+        <v>27255158</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P61" t="n">
+        <v>998572.1649484537</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>20141807</v>
+      </c>
+      <c r="R61" t="n">
+        <v>20.17060730011408</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3276795</v>
+      </c>
+      <c r="T61" t="n">
+        <v>11449241</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.05072691655980889</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3018171507498725</v>
+      </c>
+      <c r="W61" t="n">
+        <v>10.26123999161243</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.08326180257510729</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.155146181437394</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>91</v>
+      </c>
+      <c r="C62" t="n">
+        <v>133086543</v>
+      </c>
+      <c r="D62" t="n">
+        <v>22214771</v>
+      </c>
+      <c r="E62" t="n">
+        <v>18641919</v>
+      </c>
+      <c r="F62" t="n">
+        <v>28813962</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-12737109</v>
+      </c>
+      <c r="H62" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J62" t="n">
+        <v>82828984</v>
+      </c>
+      <c r="K62" t="n">
+        <v>40480115</v>
+      </c>
+      <c r="L62" t="n">
+        <v>104394750</v>
+      </c>
+      <c r="M62" t="n">
+        <v>162228472</v>
+      </c>
+      <c r="N62" t="n">
+        <v>52160423</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3259076.748251748</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>79399488</v>
+      </c>
+      <c r="R62" t="n">
+        <v>24.36257079327509</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-30668561</v>
+      </c>
+      <c r="T62" t="n">
+        <v>42348869</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.1400736586868892</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.6435044891503385</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3.728554482960909</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.06285714285714285</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.735237991596484</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>95</v>
+      </c>
+      <c r="C63" t="n">
+        <v>227981307</v>
+      </c>
+      <c r="D63" t="n">
+        <v>47675383</v>
+      </c>
+      <c r="E63" t="n">
+        <v>40839627</v>
+      </c>
+      <c r="F63" t="n">
+        <v>75288224</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-49166620</v>
+      </c>
+      <c r="H63" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>75840953</v>
+      </c>
+      <c r="K63" t="n">
+        <v>58827258</v>
+      </c>
+      <c r="L63" t="n">
+        <v>302714116</v>
+      </c>
+      <c r="M63" t="n">
+        <v>441185107</v>
+      </c>
+      <c r="N63" t="n">
+        <v>60513339</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7976489.6484375</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>365344154</v>
+      </c>
+      <c r="R63" t="n">
+        <v>45.80262372327739</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-15327614</v>
+      </c>
+      <c r="T63" t="n">
+        <v>17013695</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.1791358578359234</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.686138564509613</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.590778054158474</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.05389473684210527</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.074116988885944</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="C64" t="n">
+        <v>24103755</v>
+      </c>
+      <c r="D64" t="n">
+        <v>834078</v>
+      </c>
+      <c r="E64" t="n">
+        <v>779517</v>
+      </c>
+      <c r="F64" t="n">
+        <v>970938</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-812579</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8262760</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7186809</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3479772</v>
+      </c>
+      <c r="M64" t="n">
+        <v>18049760</v>
+      </c>
+      <c r="N64" t="n">
+        <v>13824978</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P64" t="n">
+        <v>487198.125</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>9787000</v>
+      </c>
+      <c r="R64" t="n">
+        <v>20.08833675211702</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5562218</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1075951</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.03234006485711459</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.1927877157369405</v>
+      </c>
+      <c r="W64" t="n">
+        <v>9.906459587712421</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.08020050125313284</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.9931135785991622</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2610254</v>
+      </c>
+      <c r="D65" t="n">
+        <v>821360</v>
+      </c>
+      <c r="E65" t="n">
+        <v>896368</v>
+      </c>
+      <c r="F65" t="n">
+        <v>701194</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-43371</v>
+      </c>
+      <c r="H65" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6526852</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6492056</v>
+      </c>
+      <c r="L65" t="n">
+        <v>646</v>
+      </c>
+      <c r="M65" t="n">
+        <v>12917653</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12040360</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P65" t="n">
+        <v>403769.3693693693</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6390801</v>
+      </c>
+      <c r="R65" t="n">
+        <v>15.82784996787034</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5513508</v>
+      </c>
+      <c r="T65" t="n">
+        <v>34796</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.3434025960691948</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5.000908446758865e-05</v>
+      </c>
+      <c r="W65" t="n">
+        <v>7.946396220901919</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.09673202614379087</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.449975836679475</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>931333890</v>
+      </c>
+      <c r="D66" t="n">
+        <v>23453232</v>
+      </c>
+      <c r="E66" t="n">
+        <v>26859301</v>
+      </c>
+      <c r="F66" t="n">
+        <v>39786419</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-17134782</v>
+      </c>
+      <c r="H66" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>241855120</v>
+      </c>
+      <c r="K66" t="n">
+        <v>116624929</v>
+      </c>
+      <c r="L66" t="n">
+        <v>159580627</v>
+      </c>
+      <c r="M66" t="n">
+        <v>482226907</v>
+      </c>
+      <c r="N66" t="n">
+        <v>252483005</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9524574.822695035</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>240371787</v>
+      </c>
+      <c r="R66" t="n">
+        <v>25.2370096801849</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10627885</v>
+      </c>
+      <c r="T66" t="n">
+        <v>125230191</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.02883960445163227</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.3309243525890603</v>
+      </c>
+      <c r="W66" t="n">
+        <v>10.3122298879745</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.03652849740932642</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.058999500270208</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5173846</v>
+      </c>
+      <c r="D67" t="n">
+        <v>235034</v>
+      </c>
+      <c r="E67" t="n">
+        <v>241552</v>
+      </c>
+      <c r="F67" t="n">
+        <v>402583</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-569341</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5983254</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2894850</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4759933</v>
+      </c>
+      <c r="M67" t="n">
+        <v>11071869</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4079240</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P67" t="n">
+        <v>298212.3456790123</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5088615</v>
+      </c>
+      <c r="R67" t="n">
+        <v>17.06373016990131</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-1904014</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3088404</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.04668712597939714</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.4299123300682116</v>
+      </c>
+      <c r="W67" t="n">
+        <v>25.45697218274803</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.04039900249376559</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.175006859600146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>658481</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-25291</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11882</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-95837</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-13446</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J68" t="n">
+        <v>512971</v>
+      </c>
+      <c r="K68" t="n">
+        <v>123492</v>
+      </c>
+      <c r="L68" t="n">
+        <v>458740</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2000550</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1473909</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>59410</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1487579</v>
+      </c>
+      <c r="R68" t="n">
+        <v>25.03920215451944</v>
+      </c>
+      <c r="S68" t="n">
+        <v>960938</v>
+      </c>
+      <c r="T68" t="n">
+        <v>389479</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.01804456013157555</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.2293069405913374</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-20.28274880392235</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.004056795131845843</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.968912575399357</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>35</v>
+      </c>
+      <c r="C69" t="n">
+        <v>19616358</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1391851</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1398615</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3035952</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-3349749</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13394099</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6958058</v>
+      </c>
+      <c r="L69" t="n">
+        <v>15669861</v>
+      </c>
+      <c r="M69" t="n">
+        <v>31237542</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8862423</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="P69" t="n">
+        <v>613427.6315789474</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>17843443</v>
+      </c>
+      <c r="R69" t="n">
+        <v>29.08809789684795</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-4531676</v>
+      </c>
+      <c r="T69" t="n">
+        <v>6436041</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.07129840309806744</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.5016355320146508</v>
+      </c>
+      <c r="W69" t="n">
+        <v>9.623227629969012</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.06514285714285714</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.203241274974967</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>31486050</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1832179</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7299997</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1380077</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2224746</v>
+      </c>
+      <c r="H70" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10278488</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5172523</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1748604</v>
+      </c>
+      <c r="M70" t="n">
+        <v>35318965</v>
+      </c>
+      <c r="N70" t="n">
+        <v>18135802</v>
+      </c>
+      <c r="O70" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="P70" t="n">
+        <v>300040.978216194</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>25040477</v>
+      </c>
+      <c r="R70" t="n">
+        <v>83.45685695624258</v>
+      </c>
+      <c r="S70" t="n">
+        <v>7857314</v>
+      </c>
+      <c r="T70" t="n">
+        <v>5105965</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.2318486123219648</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.0495089253040116</v>
+      </c>
+      <c r="W70" t="n">
+        <v>5.609980247563147</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.08551845342706502</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.408946974233246</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4050573</v>
+      </c>
+      <c r="D71" t="n">
+        <v>467085</v>
+      </c>
+      <c r="E71" t="n">
+        <v>437932</v>
+      </c>
+      <c r="F71" t="n">
+        <v>734515</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-889181</v>
+      </c>
+      <c r="H71" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3507986</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1088652</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5121007</v>
+      </c>
+      <c r="M71" t="n">
+        <v>7622762</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2111890</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="P71" t="n">
+        <v>167149.6183206107</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4114776</v>
+      </c>
+      <c r="R71" t="n">
+        <v>24.61732214133701</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-1396096</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2419334</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1081160616041237</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.6718046555828452</v>
+      </c>
+      <c r="W71" t="n">
+        <v>7.510380337625914</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.07963525835866261</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.336457304783563</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>139216384</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-5107783</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2046804</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2208262</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-20004631</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="J72" t="n">
+        <v>114182864</v>
+      </c>
+      <c r="K72" t="n">
+        <v>33619548</v>
+      </c>
+      <c r="L72" t="n">
+        <v>76169083</v>
+      </c>
+      <c r="M72" t="n">
+        <v>174352453</v>
+      </c>
+      <c r="N72" t="n">
+        <v>56084254</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4760009.302325581</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>60169589</v>
+      </c>
+      <c r="R72" t="n">
+        <v>12.64064525474838</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-58098610</v>
+      </c>
+      <c r="T72" t="n">
+        <v>80563316</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-0.01470232124402829</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.4368684333910691</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-22.35468186491086</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.02574850299401198</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.321135089502393</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4657687</v>
+      </c>
+      <c r="D73" t="n">
+        <v>336910</v>
+      </c>
+      <c r="E73" t="n">
+        <v>353438</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2062879</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1635737</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J73" t="n">
+        <v>20654176</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5023127</v>
+      </c>
+      <c r="L73" t="n">
+        <v>25400375</v>
+      </c>
+      <c r="M73" t="n">
+        <v>29302665</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2882816</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P73" t="n">
+        <v>397121.3483146068</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>8648489</v>
+      </c>
+      <c r="R73" t="n">
+        <v>21.77795033358043</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-17771360</v>
+      </c>
+      <c r="T73" t="n">
+        <v>15631049</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.07588272891673485</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.8668281536849975</v>
+      </c>
+      <c r="W73" t="n">
+        <v>61.30472826570895</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.04330900243309002</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.9436149722645388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="C74" t="n">
+        <v>238840657</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13307949</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14284539</v>
+      </c>
+      <c r="F74" t="n">
+        <v>26775077</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-59840433</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J74" t="n">
+        <v>210674797</v>
+      </c>
+      <c r="K74" t="n">
+        <v>85777937</v>
+      </c>
+      <c r="L74" t="n">
+        <v>129620260</v>
+      </c>
+      <c r="M74" t="n">
+        <v>386355456</v>
+      </c>
+      <c r="N74" t="n">
+        <v>97662114</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>9523026</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>175680659</v>
+      </c>
+      <c r="R74" t="n">
+        <v>18.44798691088316</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-113012683</v>
+      </c>
+      <c r="T74" t="n">
+        <v>124896860</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.05980781990563692</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.3354948350981745</v>
+      </c>
+      <c r="W74" t="n">
+        <v>15.83074875023942</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.04694835680751173</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.731896285179577</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1340591</v>
+      </c>
+      <c r="D75" t="n">
+        <v>98143</v>
+      </c>
+      <c r="E75" t="n">
+        <v>136272</v>
+      </c>
+      <c r="F75" t="n">
+        <v>143869</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-217831</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1155709</v>
+      </c>
+      <c r="K75" t="n">
+        <v>353103</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1762931</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4412088</v>
+      </c>
+      <c r="N75" t="n">
+        <v>983434</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>219793.5483870968</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3256379</v>
+      </c>
+      <c r="R75" t="n">
+        <v>14.8156259539744</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-172275</v>
+      </c>
+      <c r="T75" t="n">
+        <v>802606</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.1016506898822982</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.3995684129600316</v>
+      </c>
+      <c r="W75" t="n">
+        <v>11.77576597413977</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.06631016042780749</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.6310904466032224</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1736983</v>
+      </c>
+      <c r="D76" t="n">
+        <v>221360</v>
+      </c>
+      <c r="E76" t="n">
+        <v>165530</v>
+      </c>
+      <c r="F76" t="n">
+        <v>222531</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-32563</v>
+      </c>
+      <c r="H76" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J76" t="n">
+        <v>340212</v>
+      </c>
+      <c r="K76" t="n">
+        <v>265135</v>
+      </c>
+      <c r="L76" t="n">
+        <v>528583</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1640842</v>
+      </c>
+      <c r="N76" t="n">
+        <v>984456</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P76" t="n">
+        <v>65169.29133858268</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1300630</v>
+      </c>
+      <c r="R76" t="n">
+        <v>19.9577128013049</v>
+      </c>
+      <c r="S76" t="n">
+        <v>644244</v>
+      </c>
+      <c r="T76" t="n">
+        <v>75077</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.09529742087285828</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.3221413152515599</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.536917238886881</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>123811636</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4032120</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12104960</v>
+      </c>
+      <c r="F77" t="n">
+        <v>43472461</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-31516164</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J77" t="n">
+        <v>83461653</v>
+      </c>
+      <c r="K77" t="n">
+        <v>48203970</v>
+      </c>
+      <c r="L77" t="n">
+        <v>162352900</v>
+      </c>
+      <c r="M77" t="n">
+        <v>295902829</v>
+      </c>
+      <c r="N77" t="n">
+        <v>88796224</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P77" t="n">
+        <v>11985108.91089109</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>212441176</v>
+      </c>
+      <c r="R77" t="n">
+        <v>17.72542724304748</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5334571</v>
+      </c>
+      <c r="T77" t="n">
+        <v>35257683</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.09776916282731293</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.5486696445203638</v>
+      </c>
+      <c r="W77" t="n">
+        <v>20.69919868456296</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.07537313432835821</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.7559761362173056</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9058548</v>
+      </c>
+      <c r="D78" t="n">
+        <v>663292</v>
+      </c>
+      <c r="E78" t="n">
+        <v>550827</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1075031</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-493426</v>
+      </c>
+      <c r="H78" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5203007</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2820803</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4646352</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9588820</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4672595</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="P78" t="n">
+        <v>204768.4014869888</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4385813</v>
+      </c>
+      <c r="R78" t="n">
+        <v>21.418407176845</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-530412</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2382204</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.06080742741551957</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.4845593096960836</v>
+      </c>
+      <c r="W78" t="n">
+        <v>7.84421793116757</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0847244094488189</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.482369801724765</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1761007</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20545</v>
+      </c>
+      <c r="E79" t="n">
+        <v>65439</v>
+      </c>
+      <c r="F79" t="n">
+        <v>428139</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-210676</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J79" t="n">
+        <v>382069</v>
+      </c>
+      <c r="K79" t="n">
+        <v>335716</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1405811</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4372008</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2220554</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P79" t="n">
+        <v>384935.294117647</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3989939</v>
+      </c>
+      <c r="R79" t="n">
+        <v>10.36521997585538</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1838485</v>
+      </c>
+      <c r="T79" t="n">
+        <v>46353</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.0371599885747189</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.3215481307445</v>
+      </c>
+      <c r="W79" t="n">
+        <v>18.59669019226089</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.01658536585365854</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.9888839816112183</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14694477</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2285752</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1817475</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6462023</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-4533973</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15644685</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4714996</v>
+      </c>
+      <c r="L80" t="n">
+        <v>19834679</v>
+      </c>
+      <c r="M80" t="n">
+        <v>37338294</v>
+      </c>
+      <c r="N80" t="n">
+        <v>14622419</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1187892.156862745</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>21693609</v>
+      </c>
+      <c r="R80" t="n">
+        <v>18.262271431519</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-1022266</v>
+      </c>
+      <c r="T80" t="n">
+        <v>10929689</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.1236842250323029</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.5312154593886909</v>
+      </c>
+      <c r="W80" t="n">
+        <v>6.844436754293554</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.06609071274298056</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.267640779889254</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C81" t="n">
+        <v>330259753</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3879280</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5432508</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3552069</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2649695</v>
+      </c>
+      <c r="H81" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="J81" t="n">
+        <v>81106263</v>
+      </c>
+      <c r="K81" t="n">
+        <v>80664077</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5847671</v>
+      </c>
+      <c r="M81" t="n">
+        <v>124454657</v>
+      </c>
+      <c r="N81" t="n">
+        <v>102131124</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1636297.590361446</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>43348394</v>
+      </c>
+      <c r="R81" t="n">
+        <v>26.49175446773387</v>
+      </c>
+      <c r="S81" t="n">
+        <v>21024861</v>
+      </c>
+      <c r="T81" t="n">
+        <v>442186</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.01644919779250244</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.04698635744904266</v>
+      </c>
+      <c r="W81" t="n">
+        <v>20.90755578354746</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.07952095808383233</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.575962062114467</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="C82" t="n">
+        <v>25687311</v>
+      </c>
+      <c r="D82" t="n">
+        <v>640363</v>
+      </c>
+      <c r="E82" t="n">
+        <v>473222</v>
+      </c>
+      <c r="F82" t="n">
+        <v>846561</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-307914</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6231892</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5784426</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2834930</v>
+      </c>
+      <c r="M82" t="n">
+        <v>11072250</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7172012</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="P82" t="n">
+        <v>152161.4147909968</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4840358</v>
+      </c>
+      <c r="R82" t="n">
+        <v>31.81067951194154</v>
+      </c>
+      <c r="S82" t="n">
+        <v>940120</v>
+      </c>
+      <c r="T82" t="n">
+        <v>447466</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.01842240318575969</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.2560391970918287</v>
+      </c>
+      <c r="W82" t="n">
+        <v>9.731811488171553</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.0637948717948718</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.532504201354754</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>34398398</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1018788</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1239023</v>
+      </c>
+      <c r="F83" t="n">
+        <v>855991</v>
+      </c>
+      <c r="G83" t="n">
+        <v>74979</v>
+      </c>
+      <c r="H83" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J83" t="n">
+        <v>13471297</v>
+      </c>
+      <c r="K83" t="n">
+        <v>10793339</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1344208</v>
+      </c>
+      <c r="M83" t="n">
+        <v>23127025</v>
+      </c>
+      <c r="N83" t="n">
+        <v>17073718</v>
+      </c>
+      <c r="O83" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="P83" t="n">
+        <v>247309.9800399202</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>9655728</v>
+      </c>
+      <c r="R83" t="n">
+        <v>39.0430179907879</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3602421</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2677958</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.036019787898262</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.05812282383920975</v>
+      </c>
+      <c r="W83" t="n">
+        <v>13.22286579739848</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.1123318385650224</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.142329724882519</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>19210296</v>
+      </c>
+      <c r="D84" t="n">
+        <v>170633</v>
+      </c>
+      <c r="E84" t="n">
+        <v>175868</v>
+      </c>
+      <c r="F84" t="n">
+        <v>655005</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-19906</v>
+      </c>
+      <c r="H84" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4224592</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4152616</v>
+      </c>
+      <c r="L84" t="n">
+        <v>199039</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5888101</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5597785</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P84" t="n">
+        <v>84960.38647342996</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1663509</v>
+      </c>
+      <c r="R84" t="n">
+        <v>19.57981912570792</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1373193</v>
+      </c>
+      <c r="T84" t="n">
+        <v>71976</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.00915488236100058</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.03380359813800748</v>
+      </c>
+      <c r="W84" t="n">
+        <v>24.75835272192366</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.1019704433497537</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.036781794033352</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3214810</v>
+      </c>
+      <c r="D85" t="n">
+        <v>371546</v>
+      </c>
+      <c r="E85" t="n">
+        <v>364322</v>
+      </c>
+      <c r="F85" t="n">
+        <v>686539</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-251508</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3171961</v>
+      </c>
+      <c r="K85" t="n">
+        <v>831133</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6602387</v>
+      </c>
+      <c r="M85" t="n">
+        <v>12107017</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3516280</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P85" t="n">
+        <v>375589.6907216495</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>8935056</v>
+      </c>
+      <c r="R85" t="n">
+        <v>23.78940695318976</v>
+      </c>
+      <c r="S85" t="n">
+        <v>344319</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2340828</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.1133261374700216</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.5453355686210732</v>
+      </c>
+      <c r="W85" t="n">
+        <v>8.537195932670517</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.03265993265993266</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.248454829430615</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2480924</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-151086</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-138945</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-74500</v>
+      </c>
+      <c r="G86" t="n">
+        <v>112643</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4817109</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2172335</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7223210</v>
+      </c>
+      <c r="M86" t="n">
+        <v>9637872</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1840295</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="P86" t="n">
+        <v>330821.4285714286</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4820763</v>
+      </c>
+      <c r="R86" t="n">
+        <v>14.57210018352585</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-2976814</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2644774</v>
+      </c>
+      <c r="U86" t="n">
+        <v>-0.0560053431705284</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.7494610843555507</v>
+      </c>
+      <c r="W86" t="n">
+        <v>-31.88322544775823</v>
+      </c>
+      <c r="X86" t="n">
+        <v>-0.0288659793814433</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.9984833906405036</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>350</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5735580</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1233691</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1121433</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1263504</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-615480</v>
+      </c>
+      <c r="H87" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="I87" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3645958</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1636596</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2614414</v>
+      </c>
+      <c r="M87" t="n">
+        <v>7040853</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2102343</v>
+      </c>
+      <c r="O87" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="P87" t="n">
+        <v>105200.0938086304</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3394895</v>
+      </c>
+      <c r="R87" t="n">
+        <v>32.27083624255751</v>
+      </c>
+      <c r="S87" t="n">
+        <v>-1543615</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2009362</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.195522161664557</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.3713206340197701</v>
+      </c>
+      <c r="W87" t="n">
+        <v>2.955325117877977</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.03045714285714286</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>10.84570592993911</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="C88" t="n">
+        <v>897937</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-157208</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-113973</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-717300</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-251921</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="J88" t="n">
+        <v>538950</v>
+      </c>
+      <c r="K88" t="n">
+        <v>267196</v>
+      </c>
+      <c r="L88" t="n">
+        <v>397506</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2771688</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1640388</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="P88" t="n">
+        <v>131003.4482758621</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2232738</v>
+      </c>
+      <c r="R88" t="n">
+        <v>17.0433528993709</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1101438</v>
+      </c>
+      <c r="T88" t="n">
+        <v>271754</v>
+      </c>
+      <c r="U88" t="n">
+        <v>-0.1269276129617111</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.1434165750257605</v>
+      </c>
+      <c r="W88" t="n">
+        <v>-3.428260648313063</v>
+      </c>
+      <c r="X88" t="n">
+        <v>-0.02766295707472178</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.845294185110775</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="C89" t="n">
+        <v>38148361</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2905181</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2623678</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3890716</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-635300</v>
+      </c>
+      <c r="H89" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10225601</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7444858</v>
+      </c>
+      <c r="L89" t="n">
+        <v>10254360</v>
+      </c>
+      <c r="M89" t="n">
+        <v>21496510</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9431866</v>
+      </c>
+      <c r="O89" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="P89" t="n">
+        <v>636815.0485436893</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>11270909</v>
+      </c>
+      <c r="R89" t="n">
+        <v>17.69887352030242</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-793735</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2780743</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.06877564150134785</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.4770244100088805</v>
+      </c>
+      <c r="W89" t="n">
+        <v>3.519781039460192</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.08433981576253838</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.760062664099162</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>54391855</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4149317</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3443352</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5465747</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1508614</v>
+      </c>
+      <c r="H90" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="J90" t="n">
+        <v>22931138</v>
+      </c>
+      <c r="K90" t="n">
+        <v>20571207</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7527139</v>
+      </c>
+      <c r="M90" t="n">
+        <v>40500744</v>
+      </c>
+      <c r="N90" t="n">
+        <v>30506994</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="P90" t="n">
+        <v>368667.2376873662</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>17569606</v>
+      </c>
+      <c r="R90" t="n">
+        <v>47.65708531686565</v>
+      </c>
+      <c r="S90" t="n">
+        <v>7575856</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2359931</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.06330639026743985</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.1858518697829354</v>
+      </c>
+      <c r="W90" t="n">
+        <v>5.526484961259889</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.04658354114713217</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>4.207139372181534</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="C91" t="n">
+        <v>56618537</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4625594</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4177256</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6241135</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-144928</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J91" t="n">
+        <v>30166079</v>
+      </c>
+      <c r="K91" t="n">
+        <v>19983776</v>
+      </c>
+      <c r="L91" t="n">
+        <v>15132587</v>
+      </c>
+      <c r="M91" t="n">
+        <v>76890053</v>
+      </c>
+      <c r="N91" t="n">
+        <v>40843355</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2078236.815920398</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>46723974</v>
+      </c>
+      <c r="R91" t="n">
+        <v>22.48250711471837</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10677276</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10182303</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.07377894628397057</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.1968081228920469</v>
+      </c>
+      <c r="W91" t="n">
+        <v>6.521557879917693</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.06370839936608556</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.403313244337662</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3457016</v>
+      </c>
+      <c r="D92" t="n">
+        <v>66633</v>
+      </c>
+      <c r="E92" t="n">
+        <v>67998</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-157875</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-44638</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1893439</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1539310</v>
+      </c>
+      <c r="L92" t="n">
+        <v>992631</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4519533</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2715879</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P92" t="n">
+        <v>188883.3333333333</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2626094</v>
+      </c>
+      <c r="R92" t="n">
+        <v>13.90325950763258</v>
+      </c>
+      <c r="S92" t="n">
+        <v>822440</v>
+      </c>
+      <c r="T92" t="n">
+        <v>354129</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.01966956473444149</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.2196313203156167</v>
+      </c>
+      <c r="W92" t="n">
+        <v>28.41593504719884</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.03603603603603604</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.7185365413423892</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19641848</v>
+      </c>
+      <c r="D93" t="n">
+        <v>761309</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1225146</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1733566</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-796359</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12431437</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8320946</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5358110</v>
+      </c>
+      <c r="M93" t="n">
+        <v>33256607</v>
+      </c>
+      <c r="N93" t="n">
+        <v>11959405</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P93" t="n">
+        <v>544509.3333333334</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>20825170</v>
+      </c>
+      <c r="R93" t="n">
+        <v>38.24575397544456</v>
+      </c>
+      <c r="S93" t="n">
+        <v>-472032</v>
+      </c>
+      <c r="T93" t="n">
+        <v>4110491</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.06237427354086031</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.1611141509414956</v>
+      </c>
+      <c r="W93" t="n">
+        <v>16.3290293428818</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.9295149475370429</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C94" t="n">
+        <v>692748293</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9234044</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2903732</v>
+      </c>
+      <c r="F94" t="n">
+        <v>549582</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-9292912</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>236140542</v>
+      </c>
+      <c r="K94" t="n">
+        <v>220597261</v>
+      </c>
+      <c r="L94" t="n">
+        <v>21209228</v>
+      </c>
+      <c r="M94" t="n">
+        <v>336102814</v>
+      </c>
+      <c r="N94" t="n">
+        <v>287380820</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5094266.666666667</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>99962272</v>
+      </c>
+      <c r="R94" t="n">
+        <v>19.62250477661161</v>
+      </c>
+      <c r="S94" t="n">
+        <v>51240278</v>
+      </c>
+      <c r="T94" t="n">
+        <v>15543281</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.004191611916393419</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.06310339311827362</v>
+      </c>
+      <c r="W94" t="n">
+        <v>25.57281966600982</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.03089430894308943</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.9402469363641516</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>326</v>
+      </c>
+      <c r="C95" t="n">
+        <v>463286507</v>
+      </c>
+      <c r="D95" t="n">
+        <v>19836010</v>
+      </c>
+      <c r="E95" t="n">
+        <v>21531664</v>
+      </c>
+      <c r="F95" t="n">
+        <v>29882095</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2309820</v>
+      </c>
+      <c r="H95" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="I95" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="J95" t="n">
+        <v>159101271</v>
+      </c>
+      <c r="K95" t="n">
+        <v>151095249</v>
+      </c>
+      <c r="L95" t="n">
+        <v>10746683</v>
+      </c>
+      <c r="M95" t="n">
+        <v>296072755</v>
+      </c>
+      <c r="N95" t="n">
+        <v>238864019</v>
+      </c>
+      <c r="O95" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="P95" t="n">
+        <v>751279.2742498255</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>136971484</v>
+      </c>
+      <c r="R95" t="n">
+        <v>182.3176662723327</v>
+      </c>
+      <c r="S95" t="n">
+        <v>79762748</v>
+      </c>
+      <c r="T95" t="n">
+        <v>8006022</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.04647591430932824</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.03629743979651218</v>
+      </c>
+      <c r="W95" t="n">
+        <v>8.02083034844205</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.08791411042944786</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.788087828598273</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C96" t="n">
+        <v>119230535</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1561151</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1405978</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5803722</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-804425</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J96" t="n">
+        <v>67187621</v>
+      </c>
+      <c r="K96" t="n">
+        <v>48707683</v>
+      </c>
+      <c r="L96" t="n">
+        <v>20175295</v>
+      </c>
+      <c r="M96" t="n">
+        <v>90612329</v>
+      </c>
+      <c r="N96" t="n">
+        <v>47181573</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3905494.444444444</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>23424708</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5.997885372317348</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-20006048</v>
+      </c>
+      <c r="T96" t="n">
+        <v>18479938</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.01179209671415129</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.2226550759996468</v>
+      </c>
+      <c r="W96" t="n">
+        <v>43.03723406640357</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.04979253112033195</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.205424837455107</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>146</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30660034</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4668150</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4127209</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5059681</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2803385</v>
+      </c>
+      <c r="H97" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8115894</v>
+      </c>
+      <c r="K97" t="n">
+        <v>7335074</v>
+      </c>
+      <c r="L97" t="n">
+        <v>7941679</v>
+      </c>
+      <c r="M97" t="n">
+        <v>27536084</v>
+      </c>
+      <c r="N97" t="n">
+        <v>15411630</v>
+      </c>
+      <c r="O97" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="P97" t="n">
+        <v>568486.08815427</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>19420190</v>
+      </c>
+      <c r="R97" t="n">
+        <v>34.1612405380973</v>
+      </c>
+      <c r="S97" t="n">
+        <v>7295736</v>
+      </c>
+      <c r="T97" t="n">
+        <v>780820</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.1346120164119844</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.2884098915444912</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.738567526750426</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.04972602739726027</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>4.273849476782844</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>51118994</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1804169</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2359480</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1802852</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-3732188</v>
+      </c>
+      <c r="H98" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13147700</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12680871</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4212396</v>
+      </c>
+      <c r="M98" t="n">
+        <v>34997402</v>
+      </c>
+      <c r="N98" t="n">
+        <v>27198448</v>
+      </c>
+      <c r="O98" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P98" t="n">
+        <v>627521.2765957448</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>21849702</v>
+      </c>
+      <c r="R98" t="n">
+        <v>34.8190616237476</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14050748</v>
+      </c>
+      <c r="T98" t="n">
+        <v>466829</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.04615662037480628</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.1203631058099684</v>
+      </c>
+      <c r="W98" t="n">
+        <v>7.28739935116943</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.1310104529616725</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.824261156435812</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="n">
+        <v>627721</v>
+      </c>
+      <c r="D99" t="n">
+        <v>53517</v>
+      </c>
+      <c r="E99" t="n">
+        <v>50952</v>
+      </c>
+      <c r="F99" t="n">
+        <v>84914</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-50851</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="J99" t="n">
+        <v>341734</v>
+      </c>
+      <c r="K99" t="n">
+        <v>207941</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6665</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1071088</v>
+      </c>
+      <c r="N99" t="n">
+        <v>954020</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P99" t="n">
+        <v>47177.77777777777</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>729354</v>
+      </c>
+      <c r="R99" t="n">
+        <v>15.45969382948658</v>
+      </c>
+      <c r="S99" t="n">
+        <v>612286</v>
+      </c>
+      <c r="T99" t="n">
+        <v>133793</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.08116981907567215</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.006222644637975591</v>
+      </c>
+      <c r="W99" t="n">
+        <v>6.385522357381767</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.293686681029453</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="C100" t="n">
+        <v>70172781</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6643708</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8451890</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14781266</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-11256192</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="J100" t="n">
+        <v>108668390</v>
+      </c>
+      <c r="K100" t="n">
+        <v>61955511</v>
+      </c>
+      <c r="L100" t="n">
+        <v>62406097</v>
+      </c>
+      <c r="M100" t="n">
+        <v>216007430</v>
+      </c>
+      <c r="N100" t="n">
+        <v>65337233</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3824384.615384615</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>107339040</v>
+      </c>
+      <c r="R100" t="n">
+        <v>28.06700967475913</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-43331157</v>
+      </c>
+      <c r="T100" t="n">
+        <v>46712879</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.1204439938043784</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.2889071778688354</v>
+      </c>
+      <c r="W100" t="n">
+        <v>16.35658731539676</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.0598105548037889</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.316492224436343</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>116098947</v>
+      </c>
+      <c r="D101" t="n">
+        <v>17775975</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15118683</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21973605</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1248644</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>129062162</v>
+      </c>
+      <c r="K101" t="n">
+        <v>70398494</v>
+      </c>
+      <c r="L101" t="n">
+        <v>109369671</v>
+      </c>
+      <c r="M101" t="n">
+        <v>282680739</v>
+      </c>
+      <c r="N101" t="n">
+        <v>87788055</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5558339.338235294</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>153618577</v>
+      </c>
+      <c r="R101" t="n">
+        <v>27.63749523949937</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-41274107</v>
+      </c>
+      <c r="T101" t="n">
+        <v>58663668</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1302223955571277</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.3869017443031377</v>
+      </c>
+      <c r="W101" t="n">
+        <v>7.260482870841122</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.07083333333333335</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.389416792919747</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>28697569</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9096871</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8077321</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4330191</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1113041</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J102" t="n">
+        <v>703461593</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>12417996</v>
+      </c>
+      <c r="M102" t="n">
+        <v>865094056</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P102" t="n">
+        <v>10355539.74358974</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>161632463</v>
+      </c>
+      <c r="R102" t="n">
+        <v>15.60830888607745</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>0.2814635971430193</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.01435450389916909</v>
+      </c>
+      <c r="W102" t="n">
+        <v>77.33006140243167</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.0484472049689441</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.03150188258775</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>374120993</v>
+      </c>
+      <c r="D103" t="n">
+        <v>38233211</v>
+      </c>
+      <c r="E103" t="n">
+        <v>32659321</v>
+      </c>
+      <c r="F103" t="n">
+        <v>33555890</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-11357282</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4253866946</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>34003921</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4570546842</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="P103" t="n">
+        <v>9866864.350453172</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>316679896</v>
+      </c>
+      <c r="R103" t="n">
+        <v>32.09529235956865</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>0.08729614646350518</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.007439792693410055</v>
+      </c>
+      <c r="W103" t="n">
+        <v>111.2610433374272</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.08443877551020408</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.221362920170229</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C104" t="n">
+        <v>147996743</v>
+      </c>
+      <c r="D104" t="n">
+        <v>12684602</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10568064</v>
+      </c>
+      <c r="F104" t="n">
+        <v>110867939</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-126286551</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J104" t="n">
         <v>2420431533</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>147996743</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12684602</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10568064</v>
-      </c>
-      <c r="H4" t="n">
-        <v>110867939</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-126286551</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="L104" t="n">
         <v>24687516</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M104" t="n">
         <v>2535233401</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O104" t="n">
         <v>1.11</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P104" t="n">
         <v>9520778.378378378</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q104" t="n">
         <v>114801868</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R104" t="n">
         <v>12.05803385369354</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="U104" t="n">
         <v>0.07140740928332456</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V104" t="n">
         <v>0.009737768518773155</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W104" t="n">
         <v>190.816513833071</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X104" t="n">
         <v>0.1093596059113301</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y104" t="n">
         <v>0.8417624401420066</v>
       </c>
     </row>
